--- a/pharma_config_ckd.xlsx
+++ b/pharma_config_ckd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Neodocs\Data\ppt_dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04BDB9AD-DB11-48A2-B4A8-A5D0FB4DEA9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75221581-0513-4DF8-88B0-59550FD2A8FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,12 +60,6 @@
     <t>aId</t>
   </si>
   <si>
-    <t>bayer_pharma</t>
-  </si>
-  <si>
-    <t>bi_pharma</t>
-  </si>
-  <si>
     <t>vIsqg0OHpaCoala7tiJq</t>
   </si>
   <si>
@@ -73,6 +67,12 @@
   </si>
   <si>
     <t>2150397e-a6f4-4a0e-8108-3977a2f5d279</t>
+  </si>
+  <si>
+    <t>bayer pharma</t>
+  </si>
+  <si>
+    <t>bi pharma</t>
   </si>
 </sst>
 </file>
@@ -393,7 +393,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -427,10 +427,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
         <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
       </c>
       <c r="C2">
         <v>1200</v>
@@ -447,10 +447,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
         <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
       </c>
       <c r="C3">
         <v>10</v>
@@ -470,7 +470,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C4">
         <v>10</v>

--- a/pharma_config_ckd.xlsx
+++ b/pharma_config_ckd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Neodocs\Data\ppt_dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75221581-0513-4DF8-88B0-59550FD2A8FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1077DD2-C584-4AF6-849B-70E9EBCC8ACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -393,7 +393,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -453,7 +453,7 @@
         <v>12</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="D3">
         <v>10</v>
@@ -473,7 +473,7 @@
         <v>13</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="D4">
         <v>10</v>

--- a/pharma_config_ckd.xlsx
+++ b/pharma_config_ckd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Neodocs\Data\ppt_dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1077DD2-C584-4AF6-849B-70E9EBCC8ACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA72BE3-F101-475D-8434-5128892FA516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
   <si>
     <t>pharma_name</t>
   </si>
@@ -73,6 +73,57 @@
   </si>
   <si>
     <t>bi pharma</t>
+  </si>
+  <si>
+    <t>sun</t>
+  </si>
+  <si>
+    <t>mmc</t>
+  </si>
+  <si>
+    <t>862c3147-6bd0-483d-af60-be4c71663eb9</t>
+  </si>
+  <si>
+    <t>J1W82P4TzIDDGCXXfHCE</t>
+  </si>
+  <si>
+    <t>linadapa</t>
+  </si>
+  <si>
+    <t>benitowa</t>
+  </si>
+  <si>
+    <t>4fedd099-4819-4e96-890d-9d3f217a0943</t>
+  </si>
+  <si>
+    <t>4d2cce3a-58be-4143-9674-f78f3f1c32e2</t>
+  </si>
+  <si>
+    <t>alembic</t>
+  </si>
+  <si>
+    <t>b894153c-48f9-49bb-b64f-7428554272b7</t>
+  </si>
+  <si>
+    <t>template1sun.pptx</t>
+  </si>
+  <si>
+    <t>template1mmc.pptx</t>
+  </si>
+  <si>
+    <t>template1akumentisACR.pptx</t>
+  </si>
+  <si>
+    <t>template1alembic.pptx</t>
+  </si>
+  <si>
+    <t>gennova</t>
+  </si>
+  <si>
+    <t>04fc2868-6cff-4ea7-846a-a01dc3fc80ba</t>
+  </si>
+  <si>
+    <t>template1gennovaACR.pptx</t>
   </si>
 </sst>
 </file>
@@ -390,19 +441,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.5546875" customWidth="1"/>
-    <col min="2" max="2" width="56" customWidth="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -485,6 +537,126 @@
         <v>7</v>
       </c>
     </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
